--- a/data/trans_bre/Q45B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Estudios-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7816708112251828</v>
+        <v>0.7352536345447881</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4214761598212632</v>
+        <v>-0.47948743658587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.324561267640422</v>
+        <v>-1.35563538806665</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.6963934100451277</v>
+        <v>0.6035296954770101</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2152765642521334</v>
+        <v>-0.2134881485499923</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.832685054387947</v>
+        <v>-0.8286873535465054</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.715205044868599</v>
+        <v>2.673942811317175</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.045955869227409</v>
+        <v>2.039113888069152</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3154212362083632</v>
+        <v>0.37219911106627</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9.117358816548993</v>
+        <v>8.263737053642675</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.813346912664691</v>
+        <v>1.666610998838305</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.774588971227562</v>
+        <v>0.893135213570009</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.700068289819344</v>
+        <v>6.742440198223846</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.867420645489664</v>
+        <v>4.772373946644746</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.519494277623013</v>
+        <v>2.438814069967154</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>2.317082040034081</v>
+        <v>2.29927193293077</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.520704944805828</v>
+        <v>1.481320370933585</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>2.133560663600155</v>
+        <v>2.124089584653626</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.11004829928759</v>
+        <v>9.990445009912586</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.92549720173055</v>
+        <v>7.979261795222982</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.548813456175417</v>
+        <v>4.470398882516028</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.744704034900767</v>
+        <v>5.763541394704814</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.561355991936152</v>
+        <v>3.931064752938528</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>8.118277731413906</v>
+        <v>8.27964812776848</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.026610415064127</v>
+        <v>6.200786433497831</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.646446925155047</v>
+        <v>8.466100758227864</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.183695898278717</v>
+        <v>2.440413074243766</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1.078021398495743</v>
+        <v>1.132368089998833</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.48621382986329</v>
+        <v>1.446586186932584</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8959015400979907</v>
+        <v>1.008542756973699</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.04173799207268</v>
+        <v>13.07988789580891</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.00620177080864</v>
+        <v>16.61637316360966</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.714911853064826</v>
+        <v>6.611344702253767</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>4.980639420880868</v>
+        <v>5.195513994162468</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.94823685843124</v>
+        <v>7.024400237351793</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>8.447727354353658</v>
+        <v>9.154548109109973</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.769403931935353</v>
+        <v>4.814157683623267</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.868022073665246</v>
+        <v>3.836847954143847</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.897010445776858</v>
+        <v>1.916237187852965</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2.000443859049671</v>
+        <v>1.993351683336052</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.300212429643806</v>
+        <v>1.275362941568746</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.5037585432581</v>
+        <v>1.595491652427058</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.977726395359057</v>
+        <v>6.949710156518975</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.079848550858132</v>
+        <v>6.000438781195946</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.289978142080371</v>
+        <v>3.276221843309494</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>4.318697073733399</v>
+        <v>4.195915535521812</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.843253459264508</v>
+        <v>2.834960472928248</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.531790226694634</v>
+        <v>4.500255328124124</v>
       </c>
     </row>
     <row r="16">
